--- a/biology/Médecine/Paul_Alexander_(avocat)/Paul_Alexander_(avocat).xlsx
+++ b/biology/Médecine/Paul_Alexander_(avocat)/Paul_Alexander_(avocat).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Richard Alexander, né le 30 janvier 1946 à Dallas (Texas) et mort le 11 mars 2024 dans la même ville, est un avocat américain, écrivain et survivant de la poliomyélite. 
-Il est connu pour être la personne qui a vécu le plus longtemps dans un poumon d'acier après avoir contracté la poliomyélite en 1952 à l'âge de six ans[1],[2],[3],[4],[5].
+Il est connu pour être la personne qui a vécu le plus longtemps dans un poumon d'acier après avoir contracté la poliomyélite en 1952 à l'âge de six ans.
 </t>
         </is>
       </c>
@@ -512,17 +524,19 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Alexander est né le 30 janvier 1946 à Dallas au Texas.
-Alors qu'il est âgé de 6 ans (en 1952), Paul Alexander contracte la poliomyélite et est dès lors paralysé à vie, ne pouvant bouger que la tête, le cou et la bouche[6],[7],[8].
-Lors d'une importante épidémie de poliomyélite aux États-Unis durant les années 1950, des centaines d'enfants autour de Dallas au Texas, dont Paul Alexander, sont conduits à l'hôpital Parkland pour y être soignés. Là, il a failli mourir avant qu'un médecin ne remarque qu'il ne respirait pas et le place dans un poumon de fer, utilisé à l’époque pour suppléer à l’incapacité de respirer des victimes de la poliomyélite[9].
-Paul Alexander est l'un des premiers élèves scolarisés à domicile du Dallas Independent School District (en). Il apprend à mémoriser au lieu de prendre des notes. À 21 ans, il sort diplômé deuxième de ce lycée en 1967, devenant la première personne à obtenir son diplôme d'un lycée de Dallas sans assister physiquement aux cours[10].
-Une bourse[6] lui permet d'entrer à l'Université méthodiste du Sud puis il part à l'Université du Texas à Austin où il obtient un Bachelor of Arts en 1978, puis son diplôme de J.D.[11] (droit) en 1984. 
-Il obtient un emploi pour enseigner la terminologie juridique aux sténographes de la cour dans une école de commerce d'Austin avant de prêter serment en tant qu'avocat en 1986[12],[13].
-Ayant des difficultés avec son poumon de fer obsolète, qui est rénové en 2015[13], Paul Alexander apprend toutefois à respirer volontairement pour les rares fois où il sort de la machine ou plaide une affaire.
-Paul Alexander décède le 11 mars 2024 à Dallas (Texas)[14].
-CNN rapporte qu’ « en janvier [soit trois mois avant sa mort], il a créé un compte TikTok "Polio Paul", où il a décrit les réalisations de sa vie et répondu à des questions sur la vie dans un poumon d'acier telles que "Comment allez-vous aux toilettes ?" et "Comment restez-vous si positif ?" Au moment de sa mort, il avait 300 000 followers et plus de 4,5 millions de j'aime. »[5]
+Alors qu'il est âgé de 6 ans (en 1952), Paul Alexander contracte la poliomyélite et est dès lors paralysé à vie, ne pouvant bouger que la tête, le cou et la bouche.
+Lors d'une importante épidémie de poliomyélite aux États-Unis durant les années 1950, des centaines d'enfants autour de Dallas au Texas, dont Paul Alexander, sont conduits à l'hôpital Parkland pour y être soignés. Là, il a failli mourir avant qu'un médecin ne remarque qu'il ne respirait pas et le place dans un poumon de fer, utilisé à l’époque pour suppléer à l’incapacité de respirer des victimes de la poliomyélite.
+Paul Alexander est l'un des premiers élèves scolarisés à domicile du Dallas Independent School District (en). Il apprend à mémoriser au lieu de prendre des notes. À 21 ans, il sort diplômé deuxième de ce lycée en 1967, devenant la première personne à obtenir son diplôme d'un lycée de Dallas sans assister physiquement aux cours.
+Une bourse lui permet d'entrer à l'Université méthodiste du Sud puis il part à l'Université du Texas à Austin où il obtient un Bachelor of Arts en 1978, puis son diplôme de J.D. (droit) en 1984. 
+Il obtient un emploi pour enseigner la terminologie juridique aux sténographes de la cour dans une école de commerce d'Austin avant de prêter serment en tant qu'avocat en 1986,.
+Ayant des difficultés avec son poumon de fer obsolète, qui est rénové en 2015, Paul Alexander apprend toutefois à respirer volontairement pour les rares fois où il sort de la machine ou plaide une affaire.
+Paul Alexander décède le 11 mars 2024 à Dallas (Texas).
+CNN rapporte qu’ « en janvier [soit trois mois avant sa mort], il a créé un compte TikTok "Polio Paul", où il a décrit les réalisations de sa vie et répondu à des questions sur la vie dans un poumon d'acier telles que "Comment allez-vous aux toilettes ?" et "Comment restez-vous si positif ?" Au moment de sa mort, il avait 300 000 followers et plus de 4,5 millions de j'aime. »
 </t>
         </is>
       </c>
@@ -551,9 +565,11 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Paul Alexander publie ses mémoires, Three Minutes for a Dog, en avril 2020. Selon le Guardian « Il lui a fallu plus de huit ans pour l'écrire, en utilisant un bâton en plastique et un stylo pour écrire son histoire sur le clavier, ou en dictant les mots à son ami »[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Paul Alexander publie ses mémoires, Three Minutes for a Dog, en avril 2020. Selon le Guardian « Il lui a fallu plus de huit ans pour l'écrire, en utilisant un bâton en plastique et un stylo pour écrire son histoire sur le clavier, ou en dictant les mots à son ami ».
 (en) Paul Alexander, Three Minutes for a Dog : My Life in an Iron Lung, FriesenPress, 13 avril 2020, 156 p. (ISBN 978-1-5255-2532-2)</t>
         </is>
       </c>
